--- a/src/test/resources/excel2007.xlsx
+++ b/src/test/resources/excel2007.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alben.wong/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alben.wong/Documents/my_projects/myExcelUtil/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>年纪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +61,53 @@
   </si>
   <si>
     <t>xxxx111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <rPh sb="0" eb="1">
+      <t>xing bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010-10-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <rPh sb="0" eb="1">
+      <t>li</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>nü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-01-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +165,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -401,65 +444,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>123123123</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
         <v>123123123</v>
       </c>
-      <c r="F2" s="2">
-        <v>36809</v>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>